--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,84 +40,90 @@
     <t>name</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -130,24 +136,21 @@
     <t>great</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>love</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
@@ -157,64 +160,52 @@
     <t>worth</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
+    <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
+    <t>many</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>right</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>twitter</t>
+    <t>media</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
     <t>dilemma</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -578,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -697,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -747,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9807692307692307</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>0.9</v>
@@ -797,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,16 +859,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.7241379310344828</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.6923076923076923</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,16 +959,16 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.6842105263157895</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,7 +988,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1015,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.68</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L10">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8421052631578947</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,16 +1059,16 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.6111111111111112</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.5555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,16 +1159,16 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.5333333333333333</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.4736842105263158</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L14">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.4444444444444444</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1297,13 +1288,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6595744680851063</v>
+        <v>0.6875</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L16">
         <v>16</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="L16">
-        <v>19</v>
-      </c>
       <c r="M16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,13 +1338,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6470588235294118</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1365,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.3939393939393939</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1389,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,16 +1409,16 @@
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.2786885245901639</v>
+        <v>0.2604735883424408</v>
       </c>
       <c r="L18">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="M18">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1439,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>792</v>
+        <v>812</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1447,13 +1438,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6285714285714286</v>
+        <v>0.6159420289855072</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1465,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.2711864406779661</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1489,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1497,13 +1488,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6014492753623188</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C20">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1515,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.2459016393442623</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1539,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1547,13 +1538,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1565,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.2439024390243902</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1589,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1597,13 +1588,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5769230769230769</v>
+        <v>0.55</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1615,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.2173913043478261</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1639,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1647,13 +1638,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1665,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>13</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23">
+        <v>0.1157894736842105</v>
+      </c>
+      <c r="L23">
         <v>11</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="L23">
-        <v>14</v>
-      </c>
       <c r="M23">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1689,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1697,13 +1688,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4615384615384616</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1715,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.1529411764705882</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="L24">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1739,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>72</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1768,16 +1759,16 @@
         <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.1473684210526316</v>
+        <v>0.05185185185185185</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1789,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>81</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1797,7 +1788,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3571428571428572</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -1815,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.1408450704225352</v>
+        <v>0.0499359795134443</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1839,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>61</v>
+        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1847,13 +1838,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1666666666666667</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1865,19 +1856,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.1232876712328767</v>
+        <v>0.0469208211143695</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M27">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1889,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>64</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1897,37 +1888,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04391891891891892</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E28">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.06569343065693431</v>
+        <v>0.04220779220779221</v>
       </c>
       <c r="L28">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1939,21 +1930,45 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>128</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.05016722408026756</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>284</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.04946996466431095</v>
+        <v>0.03886925795053003</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1965,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.04814814814814815</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1991,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>514</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.04367469879518072</v>
+        <v>0.0282258064516129</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2017,137 +2032,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32">
-        <v>0.04097311139564661</v>
-      </c>
-      <c r="L32">
-        <v>32</v>
-      </c>
-      <c r="M32">
-        <v>32</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K33">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="L33">
-        <v>11</v>
-      </c>
-      <c r="M33">
-        <v>11</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34">
-        <v>0.03174603174603174</v>
-      </c>
-      <c r="L34">
-        <v>10</v>
-      </c>
-      <c r="M34">
-        <v>10</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K35">
-        <v>0.02922077922077922</v>
-      </c>
-      <c r="L35">
-        <v>18</v>
-      </c>
-      <c r="M35">
-        <v>18</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K36">
-        <v>0.02073732718894009</v>
-      </c>
-      <c r="L36">
-        <v>36</v>
-      </c>
-      <c r="M36">
-        <v>36</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>1700</v>
+        <v>1687</v>
       </c>
     </row>
   </sheetData>
